--- a/medicine/Psychotrope/Stuttgarter_Hofbräu/Stuttgarter_Hofbräu.xlsx
+++ b/medicine/Psychotrope/Stuttgarter_Hofbräu/Stuttgarter_Hofbräu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stuttgarter_Hofbr%C3%A4u</t>
+          <t>Stuttgarter_Hofbräu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Stuttgarter Hofbräu est une brasserie fondée en 1872 à Stuttgart.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stuttgarter_Hofbr%C3%A4u</t>
+          <t>Stuttgarter_Hofbräu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le testament d'Eitel-Frédéric de Hohenzollern-Hechingen, il est mentionné que les moines de l'abbaye St. Luzen (de) ont droit de faire de la bière en récompense de leur travail. En 1608, les moines donnent leur première livraison à la Cour.
 En 1872, les brasseries de St. Luzen et Englischer Garten fusionnent sous le nom de "Württembergisch-Hohenzollersche Brauereigesellschaft". En 1883, elle est le fournisseur de la cour du royaume de Wurtemberg. C'est pourquoi la brasserie conserve le nom de "Hofbräu". En 1933, elle se renomme simplement Stuttgarter Hofbräu.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stuttgarter_Hofbr%C3%A4u</t>
+          <t>Stuttgarter_Hofbräu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Stuttgarter Hofbräu produit de la pils, de l'export et du panaché, Malteser Weissbier de la bière blanche.
 </t>
